--- a/cbrunner/Parameters/Parameters_BiomassAllometrySL.xlsx
+++ b/cbrunner/Parameters/Parameters_BiomassAllometrySL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E49642-F180-402B-BFB8-08F35EB2C777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F2DFB2-72BE-4D09-A113-5EFDE7CD4F20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{DF36E025-1EE3-493B-A49B-366CFC60D2BD}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{DF36E025-1EE3-493B-A49B-366CFC60D2BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,37 +35,37 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Coast</t>
+    <t>Gf1</t>
   </si>
   <si>
-    <t>Interior</t>
+    <t>Gf2</t>
   </si>
   <si>
-    <t>bAlloSL_Gf1</t>
+    <t>Gf3</t>
   </si>
   <si>
-    <t>bAlloSL_Gf2</t>
+    <t>Gbr1</t>
   </si>
   <si>
-    <t>bAlloSL_Gf3</t>
+    <t>Gbr2</t>
   </si>
   <si>
-    <t>bAlloSL_Gbr1</t>
+    <t>Gbr3</t>
   </si>
   <si>
-    <t>bAlloSL_Gbr2</t>
+    <t>Gbk1</t>
   </si>
   <si>
-    <t>bAlloSL_Gbr3</t>
+    <t>Gbk2</t>
   </si>
   <si>
-    <t>bAlloSL_Gbk1</t>
+    <t>Gbk3</t>
   </si>
   <si>
-    <t>bAlloSL_Gbk2</t>
+    <t>Maritime</t>
   </si>
   <si>
-    <t>bAlloSL_Gbk3</t>
+    <t>Continental</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,37 +446,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>0.04</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>0.14000000000000001</v>

--- a/cbrunner/Parameters/Parameters_BiomassAllometrySL.xlsx
+++ b/cbrunner/Parameters/Parameters_BiomassAllometrySL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F2DFB2-72BE-4D09-A113-5EFDE7CD4F20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F312D7-87A0-4F91-99BB-C157E032D3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{DF36E025-1EE3-493B-A49B-366CFC60D2BD}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{DF36E025-1EE3-493B-A49B-366CFC60D2BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,9 +130,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,7 +170,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -276,7 +276,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -429,12 +429,12 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
     <col min="2" max="4" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -522,13 +522,13 @@
         <v>0.11</v>
       </c>
       <c r="E3" s="1">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F3" s="2">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="G3" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H3" s="1">
         <v>0.14000000000000001</v>

--- a/cbrunner/Parameters/Parameters_BiomassAllometrySL.xlsx
+++ b/cbrunner/Parameters/Parameters_BiomassAllometrySL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F312D7-87A0-4F91-99BB-C157E032D3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6666F243-882A-426E-AF93-31B62A4E35A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{DF36E025-1EE3-493B-A49B-366CFC60D2BD}"/>
+    <workbookView xWindow="930" yWindow="315" windowWidth="20670" windowHeight="13185" xr2:uid="{DF36E025-1EE3-493B-A49B-366CFC60D2BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,19 +429,19 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,12 +474,12 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="C2" s="1">
         <v>1.01</v>
@@ -488,7 +488,7 @@
         <v>0.08</v>
       </c>
       <c r="E2" s="1">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F2" s="2">
         <v>0.92</v>
@@ -508,7 +508,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -531,7 +531,7 @@
         <v>0.05</v>
       </c>
       <c r="H3" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="I3" s="1">
         <v>0.72</v>
@@ -542,7 +542,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -551,7 +551,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -560,7 +560,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -569,7 +569,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -578,7 +578,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -587,7 +587,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -596,7 +596,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -605,7 +605,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -614,7 +614,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -623,7 +623,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -632,7 +632,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -641,7 +641,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -650,7 +650,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -659,7 +659,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -668,7 +668,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -677,7 +677,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -686,7 +686,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -695,7 +695,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -704,7 +704,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -713,7 +713,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -722,7 +722,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -731,7 +731,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -740,7 +740,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -749,7 +749,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -758,7 +758,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -767,7 +767,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -776,7 +776,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -785,7 +785,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -794,7 +794,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -803,7 +803,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -812,7 +812,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -821,7 +821,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -830,7 +830,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -839,7 +839,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -848,7 +848,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -857,7 +857,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -866,7 +866,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -875,7 +875,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -884,7 +884,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -893,7 +893,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -902,7 +902,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -911,7 +911,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -920,7 +920,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -929,7 +929,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -938,7 +938,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -947,7 +947,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -956,7 +956,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -965,7 +965,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -974,7 +974,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -983,7 +983,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -992,7 +992,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -1001,7 +1001,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -1010,7 +1010,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -1019,7 +1019,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -1028,7 +1028,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -1037,7 +1037,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -1046,7 +1046,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -1055,7 +1055,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -1064,7 +1064,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -1073,7 +1073,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -1082,7 +1082,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -1091,7 +1091,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>

--- a/cbrunner/Parameters/Parameters_BiomassAllometrySL.xlsx
+++ b/cbrunner/Parameters/Parameters_BiomassAllometrySL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6666F243-882A-426E-AF93-31B62A4E35A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E735763-8B2C-493D-9F90-3CD4F4E45DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="315" windowWidth="20670" windowHeight="13185" xr2:uid="{DF36E025-1EE3-493B-A49B-366CFC60D2BD}"/>
+    <workbookView xWindow="6870" yWindow="1335" windowWidth="16935" windowHeight="7245" xr2:uid="{DF36E025-1EE3-493B-A49B-366CFC60D2BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,10 @@
     <t>Gbk3</t>
   </si>
   <si>
-    <t>Maritime</t>
+    <t>Coast</t>
   </si>
   <si>
-    <t>Continental</t>
+    <t>Interior</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
